--- a/individual_results/avey/27.xlsx
+++ b/individual_results/avey/27.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
         <v>0.3333333333333333</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
         <v>0.5</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>0.3333333333333333</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -698,22 +698,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0.5714285714285715</v>
@@ -765,22 +763,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C5" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="F5" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0.625</v>
@@ -832,7 +828,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9360403422435027</v>
+        <v>0.7984848580994974</v>
       </c>
       <c r="C6" t="n">
         <v>0.7452525342261976</v>
@@ -841,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9467676761267002</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -850,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1064646477465997</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
